--- a/medicine/Enfance/Marc_Brandel/Marc_Brandel.xlsx
+++ b/medicine/Enfance/Marc_Brandel/Marc_Brandel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marc Brandel, né le 28 mars 1919 à Londres[1],[2], en Angleterre, et mort le 16 novembre 1994 à Santa Monica, en Californie, aux États-Unis, est un écrivain et scénariste britannique, auteur de roman policier et de roman d'horreur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc Brandel, né le 28 mars 1919 à Londres en Angleterre, et mort le 16 novembre 1994 à Santa Monica, en Californie, aux États-Unis, est un écrivain et scénariste britannique, auteur de roman policier et de roman d'horreur.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études au St Catharine's College et au Westminster College, Cambridge (en). Pendant la Seconde Guerre mondiale, il est dans la marine marchande. Il est président de la Dover Film Production.
-En 1945, il publie son premier roman, Rain Before Seven. En 1954, il fait paraître Ça va chauffer (The Time of the Fire) qui est, selon François Guérif, « un excellent roman qui fustige les tares de l'Amérique d’après-guerre : bourgeoisie réactionnaire, immobilisme des notables, immigration ouvrière, ghettos des classes pauvres, racisme, refoulement sexuel, fanatisme religieux »[3].
-Il a été proche de la romancière Patricia Highsmith, qu’il avait rencontrée à Yaddo[4]. Il lui a même proposé le mariage, mais l’a finalement surtout aidée à accepter son homosexualité[5].
+En 1945, il publie son premier roman, Rain Before Seven. En 1954, il fait paraître Ça va chauffer (The Time of the Fire) qui est, selon François Guérif, « un excellent roman qui fustige les tares de l'Amérique d’après-guerre : bourgeoisie réactionnaire, immobilisme des notables, immigration ouvrière, ghettos des classes pauvres, racisme, refoulement sexuel, fanatisme religieux ».
+Il a été proche de la romancière Patricia Highsmith, qu’il avait rencontrée à Yaddo. Il lui a même proposé le mariage, mais l’a finalement surtout aidée à accepter son homosexualité.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Rain Before Seven  (1945)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rain Before Seven  (1945)
 The Rod and the Staff  (1947)
 The Barriers Between (1949)
 The Choice (1950)
@@ -556,11 +575,79 @@
 Survivor (1976)
 The Lizard's Tail (1979) Publié en français sous le titre La Queue du lézard, traduit par Théo Carlier, Paris, Éditions Seghers, coll. « Les Fenêtres de la nuit », 1981  (ISBN 2-221-00699-2)
 Murder in the Family (1985)
-A Life of Her Own (1985)
-Littérature d’enfance et de jeunesse
-The Mine of Lost Days (1974)
-Nouvelles
-The Quarry (1952)
+A Life of Her Own (1985)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marc_Brandel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Brandel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Mine of Lost Days (1974)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marc_Brandel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Brandel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Quarry (1952)
 Cast the First Shadow (1953)
 Law-Abiding (1953)
 The Man in the Cellar (1954)
@@ -571,68 +658,143 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Marc_Brandel</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marc_Brandel</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adaptation
-1981 : La Main du cauchemar (The Hand), film américain réalisé par Oliver Stone, adaptation de La Queue du lézard (The Lizard's Tail)
-Histoire pour le cinéma
-1967 : Croisière surprise (Double Trouble), film américain réalisé par Norman Taurog
-Scénario pour le cinéma
-1962 : L'Arsenal de la peur (La città prigioniera), film italien[6] réalisé par Joseph Anthony
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1981 : La Main du cauchemar (The Hand), film américain réalisé par Oliver Stone, adaptation de La Queue du lézard (The Lizard's Tail)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marc_Brandel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Brandel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Histoire pour le cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1967 : Croisière surprise (Double Trouble), film américain réalisé par Norman Taurog</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marc_Brandel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Brandel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Scénario pour le cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1962 : L'Arsenal de la peur (La città prigioniera), film italien réalisé par Joseph Anthony
 Marc Brandel a également écrit quarante-cinq scénarios pour différentes séries télévisées et téléfilms américains.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Marc_Brandel</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marc_Brandel</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 290-291</t>
